--- a/data_excel/421.xlsx
+++ b/data_excel/421.xlsx
@@ -117,9 +117,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -127,6 +124,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +501,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -648,16 +649,16 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
-        <v>32</v>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -679,7 +680,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
